--- a/Code/Results/Cases/Case_2_232/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_232/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7335873230410641</v>
+        <v>0.2431903771268651</v>
       </c>
       <c r="C2">
-        <v>0.09146581398726283</v>
+        <v>0.05551934676972081</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4847547744663103</v>
+        <v>0.5648735511074534</v>
       </c>
       <c r="F2">
-        <v>1.36024674723987</v>
+        <v>2.044944038988177</v>
       </c>
       <c r="G2">
-        <v>0.2262339835947529</v>
+        <v>0.4283065998189315</v>
       </c>
       <c r="H2">
-        <v>0.2296583197212527</v>
+        <v>0.5961500072058001</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02318285149676491</v>
+        <v>0.03999789559807532</v>
       </c>
       <c r="K2">
-        <v>0.7285029771295939</v>
+        <v>0.2223516965622281</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6270274266687395</v>
+        <v>0.4018644365232333</v>
       </c>
       <c r="N2">
-        <v>0.7127798818557842</v>
+        <v>1.413611318524705</v>
       </c>
       <c r="O2">
-        <v>0.9091356038509133</v>
+        <v>1.999951363741616</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6390369893165371</v>
+        <v>0.2141971996420864</v>
       </c>
       <c r="C3">
-        <v>0.08513864135809257</v>
+        <v>0.05339687447753505</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4350787953096713</v>
+        <v>0.5550854854953968</v>
       </c>
       <c r="F3">
-        <v>1.25923910901075</v>
+        <v>2.033183166965259</v>
       </c>
       <c r="G3">
-        <v>0.2227681339232319</v>
+        <v>0.4312419932998282</v>
       </c>
       <c r="H3">
-        <v>0.2330669477889842</v>
+        <v>0.6006553913787229</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02331874404543477</v>
+        <v>0.04009112975882978</v>
       </c>
       <c r="K3">
-        <v>0.6386116653350911</v>
+        <v>0.1939576610440668</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5475841024418742</v>
+        <v>0.3811933185100642</v>
       </c>
       <c r="N3">
-        <v>0.7437491769654656</v>
+        <v>1.427288730535384</v>
       </c>
       <c r="O3">
-        <v>0.9086202891170387</v>
+        <v>2.015394959385588</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.580977122521432</v>
+        <v>0.1963765498992132</v>
       </c>
       <c r="C4">
-        <v>0.0812505963298662</v>
+        <v>0.05208753242827413</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.405092512501767</v>
+        <v>0.5493443845042734</v>
       </c>
       <c r="F4">
-        <v>1.199293190403097</v>
+        <v>2.027051235759373</v>
       </c>
       <c r="G4">
-        <v>0.2212176073562659</v>
+        <v>0.4333232307011912</v>
       </c>
       <c r="H4">
-        <v>0.2355340607976615</v>
+        <v>0.6036540412581672</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02341311933553669</v>
+        <v>0.04015490912184116</v>
       </c>
       <c r="K4">
-        <v>0.5833453080358169</v>
+        <v>0.1764592190571506</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4991331746721386</v>
+        <v>0.3686580187189108</v>
       </c>
       <c r="N4">
-        <v>0.7636562145383223</v>
+        <v>1.436149594181771</v>
       </c>
       <c r="O4">
-        <v>0.9103042464653015</v>
+        <v>2.025947734165626</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.557310007999348</v>
+        <v>0.1891102528108206</v>
       </c>
       <c r="C5">
-        <v>0.07966515190535262</v>
+        <v>0.05155246469899311</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3929923611358532</v>
+        <v>0.5470725275157164</v>
       </c>
       <c r="F5">
-        <v>1.175354924817299</v>
+        <v>2.024826485584526</v>
       </c>
       <c r="G5">
-        <v>0.2207242993771885</v>
+        <v>0.4342414385632907</v>
       </c>
       <c r="H5">
-        <v>0.2366306600570169</v>
+        <v>0.6049344814160662</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02345430505625412</v>
+        <v>0.04018254748266159</v>
       </c>
       <c r="K5">
-        <v>0.5608005267131517</v>
+        <v>0.169312717384912</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4794616459130836</v>
+        <v>0.3635894776062401</v>
       </c>
       <c r="N5">
-        <v>0.7719876349383838</v>
+        <v>1.439876902238666</v>
       </c>
       <c r="O5">
-        <v>0.9114733102708215</v>
+        <v>2.030517221244651</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5533794993604886</v>
+        <v>0.1879034476085053</v>
       </c>
       <c r="C6">
-        <v>0.07940182077334157</v>
+        <v>0.05146352775679475</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3909900756100839</v>
+        <v>0.5466993783667249</v>
       </c>
       <c r="F6">
-        <v>1.171408718426562</v>
+        <v>2.024473624618977</v>
       </c>
       <c r="G6">
-        <v>0.2206505639047833</v>
+        <v>0.4343981380734334</v>
       </c>
       <c r="H6">
-        <v>0.2368181782325607</v>
+        <v>0.6051506300807148</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0234613079562882</v>
+        <v>0.04018723647642375</v>
       </c>
       <c r="K6">
-        <v>0.5570554356425106</v>
+        <v>0.1681251084514486</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4761993139387641</v>
+        <v>0.3627502551963104</v>
       </c>
       <c r="N6">
-        <v>0.7733841516741258</v>
+        <v>1.440502852452287</v>
       </c>
       <c r="O6">
-        <v>0.9116960214371517</v>
+        <v>2.031292236815375</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5806579763736863</v>
+        <v>0.1962785706105024</v>
       </c>
       <c r="C7">
-        <v>0.08122921897131619</v>
+        <v>0.0520803223342341</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4049288545966476</v>
+        <v>0.5493134712554379</v>
       </c>
       <c r="F7">
-        <v>1.198968405891023</v>
+        <v>2.027020122137841</v>
       </c>
       <c r="G7">
-        <v>0.2212104020859087</v>
+        <v>0.4333353302530583</v>
       </c>
       <c r="H7">
-        <v>0.2355484842227185</v>
+        <v>0.6036710729349295</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02341366376897902</v>
+        <v>0.04015527518395778</v>
       </c>
       <c r="K7">
-        <v>0.5830413619393937</v>
+        <v>0.1763629019932154</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.498867596057238</v>
+        <v>0.3685895015396099</v>
       </c>
       <c r="N7">
-        <v>0.7637676942636595</v>
+        <v>1.436199390470186</v>
       </c>
       <c r="O7">
-        <v>0.9103180838905871</v>
+        <v>2.026008270107781</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7009838805052766</v>
+        <v>0.233197688394057</v>
       </c>
       <c r="C8">
-        <v>0.08928469951012374</v>
+        <v>0.05478881664731716</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.467513424996099</v>
+        <v>0.5614428862328893</v>
       </c>
       <c r="F8">
-        <v>1.324969779986844</v>
+        <v>2.04066288886726</v>
       </c>
       <c r="G8">
-        <v>0.2249149839497733</v>
+        <v>0.4292608125124531</v>
       </c>
       <c r="H8">
-        <v>0.2307541855594124</v>
+        <v>0.5976552719521777</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02322742321958415</v>
+        <v>0.04002868971353912</v>
       </c>
       <c r="K8">
-        <v>0.6975204177942658</v>
+        <v>0.2125750567061004</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5995613201848755</v>
+        <v>0.3947046262561997</v>
       </c>
       <c r="N8">
-        <v>0.7232698748552302</v>
+        <v>1.418231244861438</v>
       </c>
       <c r="O8">
-        <v>0.9085303326003213</v>
+        <v>2.005054163807046</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9371892715502383</v>
+        <v>0.305430200716188</v>
       </c>
       <c r="C9">
-        <v>0.1050694847858722</v>
+        <v>0.06004985468139523</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5948107243204817</v>
+        <v>0.5873592613884284</v>
       </c>
       <c r="F9">
-        <v>1.590001818008474</v>
+        <v>2.076056842888121</v>
       </c>
       <c r="G9">
-        <v>0.2370781615559778</v>
+        <v>0.4234858263913566</v>
       </c>
       <c r="H9">
-        <v>0.2244571658597536</v>
+        <v>0.5876997083025941</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02295006137720357</v>
+        <v>0.03983208096659752</v>
       </c>
       <c r="K9">
-        <v>0.9216876147424387</v>
+        <v>0.283059719070053</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8000962107387792</v>
+        <v>0.4471525396398803</v>
       </c>
       <c r="N9">
-        <v>0.6511681947953889</v>
+        <v>1.386666291691107</v>
       </c>
       <c r="O9">
-        <v>0.921851062419762</v>
+        <v>1.972456707558763</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.111325045065342</v>
+        <v>0.3583802879072095</v>
       </c>
       <c r="C10">
-        <v>0.1166798900752894</v>
+        <v>0.06388263683051321</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.691843986624562</v>
+        <v>0.6076986032895775</v>
       </c>
       <c r="F10">
-        <v>1.797876720835148</v>
+        <v>2.107330967253333</v>
       </c>
       <c r="G10">
-        <v>0.2494633615148132</v>
+        <v>0.4205968319777895</v>
       </c>
       <c r="H10">
-        <v>0.2219213824154593</v>
+        <v>0.5815052614804799</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02280139434780182</v>
+        <v>0.03971882258638004</v>
       </c>
       <c r="K10">
-        <v>1.086571980814199</v>
+        <v>0.3345061854599862</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9500192497028905</v>
+        <v>0.4864327252334775</v>
       </c>
       <c r="N10">
-        <v>0.6029992218496467</v>
+        <v>1.365709556347337</v>
       </c>
       <c r="O10">
-        <v>0.9432920507852174</v>
+        <v>1.953687339506587</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.190779790707779</v>
+        <v>0.382439243199542</v>
       </c>
       <c r="C11">
-        <v>0.1219697597390734</v>
+        <v>0.06561884507701166</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.7369216313045683</v>
+        <v>0.6172335779191513</v>
       </c>
       <c r="F11">
-        <v>1.895828606613918</v>
+        <v>2.122703716554952</v>
       </c>
       <c r="G11">
-        <v>0.2559554332700529</v>
+        <v>0.4195773131610423</v>
       </c>
       <c r="H11">
-        <v>0.2212683706243652</v>
+        <v>0.5789298730355412</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02274608543456935</v>
+        <v>0.03967401170004869</v>
       </c>
       <c r="K11">
-        <v>1.161716334346465</v>
+        <v>0.3578336274262028</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.018956781240007</v>
+        <v>0.5044632134837315</v>
       </c>
       <c r="N11">
-        <v>0.5822100704717172</v>
+        <v>1.35666014457184</v>
       </c>
       <c r="O11">
-        <v>0.9559052638546461</v>
+        <v>1.946274009960604</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.220910827491139</v>
+        <v>0.3915452584293746</v>
       </c>
       <c r="C12">
-        <v>0.1239745212175904</v>
+        <v>0.06627520729463754</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7541414622801454</v>
+        <v>0.6208847970912643</v>
       </c>
       <c r="F12">
-        <v>1.933454641547257</v>
+        <v>2.12868972423928</v>
       </c>
       <c r="G12">
-        <v>0.2585468531652424</v>
+        <v>0.4192336825448848</v>
       </c>
       <c r="H12">
-        <v>0.2210972249921923</v>
+        <v>0.5779894699062709</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02272694417849941</v>
+        <v>0.03965800308625944</v>
       </c>
       <c r="K12">
-        <v>1.190199348468326</v>
+        <v>0.3666558267202333</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.045182671029295</v>
+        <v>0.5113139463295369</v>
       </c>
       <c r="N12">
-        <v>0.5745065714723125</v>
+        <v>1.35330292302017</v>
       </c>
       <c r="O12">
-        <v>0.9611219786536509</v>
+        <v>1.943628581507198</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.214419499151205</v>
+        <v>0.3895843274798949</v>
       </c>
       <c r="C13">
-        <v>0.1235426816183036</v>
+        <v>0.06613389769985645</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7504259421107946</v>
+        <v>0.620096640558657</v>
       </c>
       <c r="F13">
-        <v>1.925326685564144</v>
+        <v>2.127393207926616</v>
       </c>
       <c r="G13">
-        <v>0.2579826687451217</v>
+        <v>0.4193058010828139</v>
       </c>
       <c r="H13">
-        <v>0.2211306290195907</v>
+        <v>0.5781904534783493</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02273098588450218</v>
+        <v>0.039661408193016</v>
       </c>
       <c r="K13">
-        <v>1.184063671099352</v>
+        <v>0.3647563230002788</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.039528839027845</v>
+        <v>0.5098375009229059</v>
       </c>
       <c r="N13">
-        <v>0.5761580233715335</v>
+        <v>1.354022865366939</v>
       </c>
       <c r="O13">
-        <v>0.9599783963355577</v>
+        <v>1.944191122901032</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.193257769787436</v>
+        <v>0.3831884954948919</v>
       </c>
       <c r="C14">
-        <v>0.1221346580223894</v>
+        <v>0.0656728667459987</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.738335221665082</v>
+        <v>0.6175331541448372</v>
       </c>
       <c r="F14">
-        <v>1.898913147176046</v>
+        <v>2.123192889195806</v>
       </c>
       <c r="G14">
-        <v>0.25616590779061</v>
+        <v>0.4195481915708612</v>
       </c>
       <c r="H14">
-        <v>0.2212527397205406</v>
+        <v>0.5788518074180757</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02274447435146243</v>
+        <v>0.03967267544297925</v>
       </c>
       <c r="K14">
-        <v>1.164059052281402</v>
+        <v>0.3585596663120327</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.02111189246591</v>
+        <v>0.5050263684806069</v>
       </c>
       <c r="N14">
-        <v>0.5815728699963039</v>
+        <v>1.356382549104822</v>
       </c>
       <c r="O14">
-        <v>0.9563254469498901</v>
+        <v>1.946053125072396</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.180301503856157</v>
+        <v>0.3792702507084584</v>
       </c>
       <c r="C15">
-        <v>0.1212724246829424</v>
+        <v>0.06539032707128456</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7309492991120123</v>
+        <v>0.6159682202974466</v>
       </c>
       <c r="F15">
-        <v>1.882805043044414</v>
+        <v>2.120641515716173</v>
       </c>
       <c r="G15">
-        <v>0.2550707078809964</v>
+        <v>0.419702191379379</v>
       </c>
       <c r="H15">
-        <v>0.221337579166871</v>
+        <v>0.5792614421866915</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02275297219153849</v>
+        <v>0.039679701877537</v>
       </c>
       <c r="K15">
-        <v>1.15180946201906</v>
+        <v>0.3547625362969029</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.009847162910248</v>
+        <v>0.502082395093808</v>
       </c>
       <c r="N15">
-        <v>0.5849118428962825</v>
+        <v>1.357836987047595</v>
       </c>
       <c r="O15">
-        <v>0.9541461553317134</v>
+        <v>1.947214733456605</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.106138048994779</v>
+        <v>0.3568073646844141</v>
       </c>
       <c r="C16">
-        <v>0.1163343852960139</v>
+        <v>0.06376901981606409</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6889181800044497</v>
+        <v>0.6070811470916766</v>
       </c>
       <c r="F16">
-        <v>1.791547422954395</v>
+        <v>2.106349372761727</v>
       </c>
       <c r="G16">
-        <v>0.249057164215678</v>
+        <v>0.4206693953126788</v>
       </c>
       <c r="H16">
-        <v>0.2219744798763372</v>
+        <v>0.581678446239593</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0228052594810837</v>
+        <v>0.03972188572016222</v>
       </c>
       <c r="K16">
-        <v>1.081664534302178</v>
+        <v>0.3329801144002147</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9455300859473184</v>
+        <v>0.4852576211085591</v>
       </c>
       <c r="N16">
-        <v>0.6043810644794299</v>
+        <v>1.366310694893798</v>
       </c>
       <c r="O16">
-        <v>0.9425277411018982</v>
+        <v>1.954194461071893</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.060708589588984</v>
+        <v>0.3430194930081996</v>
       </c>
       <c r="C17">
-        <v>0.113307453655608</v>
+        <v>0.06277248657086432</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6633838351517625</v>
+        <v>0.6017015061817546</v>
       </c>
       <c r="F17">
-        <v>1.736463795983411</v>
+        <v>2.097875043548868</v>
       </c>
       <c r="G17">
-        <v>0.2455944683748967</v>
+        <v>0.4213382671530823</v>
       </c>
       <c r="H17">
-        <v>0.2224962737114993</v>
+        <v>0.5832232875799619</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02284051344885896</v>
+        <v>0.0397494796037936</v>
       </c>
       <c r="K17">
-        <v>1.038673436006718</v>
+        <v>0.3195975342827353</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9062725400479223</v>
+        <v>0.4749773931279222</v>
       </c>
       <c r="N17">
-        <v>0.6166175906367464</v>
+        <v>1.371632986856383</v>
       </c>
       <c r="O17">
-        <v>0.9361528090299345</v>
+        <v>1.958764476034446</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.034600746518464</v>
+        <v>0.335086440712189</v>
       </c>
       <c r="C18">
-        <v>0.1115671908095948</v>
+        <v>0.0621986185456791</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6487843493727183</v>
+        <v>0.5986338753872644</v>
       </c>
       <c r="F18">
-        <v>1.705097124856081</v>
+        <v>2.09310870655392</v>
       </c>
       <c r="G18">
-        <v>0.2436829630353756</v>
+        <v>0.421750719375396</v>
       </c>
       <c r="H18">
-        <v>0.2228432437033945</v>
+        <v>0.5841346661556699</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02286194829603794</v>
+        <v>0.03976598282094557</v>
       </c>
       <c r="K18">
-        <v>1.013958554348477</v>
+        <v>0.3118931217790077</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8837610400000813</v>
+        <v>0.4690797178718213</v>
       </c>
       <c r="N18">
-        <v>0.6237609653811553</v>
+        <v>1.37473977587868</v>
       </c>
       <c r="O18">
-        <v>0.9327534249461991</v>
+        <v>1.961498909108201</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02576459622918</v>
+        <v>0.3324000090688344</v>
       </c>
       <c r="C19">
-        <v>0.110978084086895</v>
+        <v>0.06200419985756866</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.643855744930022</v>
+        <v>0.5975997990841648</v>
       </c>
       <c r="F19">
-        <v>1.694529813284234</v>
+        <v>2.091513437416424</v>
       </c>
       <c r="G19">
-        <v>0.2430492413912191</v>
+        <v>0.4218951302095562</v>
       </c>
       <c r="H19">
-        <v>0.2229686454346691</v>
+        <v>0.584447164712607</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02286940367132395</v>
+        <v>0.03977167920804803</v>
       </c>
       <c r="K19">
-        <v>1.005592435197627</v>
+        <v>0.3092833346388204</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8761503477442432</v>
+        <v>0.4670854923351797</v>
       </c>
       <c r="N19">
-        <v>0.6261974477555405</v>
+        <v>1.375799503867892</v>
       </c>
       <c r="O19">
-        <v>0.9316475034341352</v>
+        <v>1.962442924184515</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.065542296365322</v>
+        <v>0.34448751176771</v>
       </c>
       <c r="C20">
-        <v>0.1136295953548512</v>
+        <v>0.06287864082479189</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6660928789455056</v>
+        <v>0.6022714261866469</v>
       </c>
       <c r="F20">
-        <v>1.742294513415914</v>
+        <v>2.098765986707221</v>
       </c>
       <c r="G20">
-        <v>0.2459547155911892</v>
+        <v>0.4212641937047863</v>
       </c>
       <c r="H20">
-        <v>0.2224358499756605</v>
+        <v>0.5830564743233921</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02283664056428591</v>
+        <v>0.03974647681774712</v>
       </c>
       <c r="K20">
-        <v>1.043248568255194</v>
+        <v>0.3210228718496069</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9104443897561652</v>
+        <v>0.4760701656844333</v>
       </c>
       <c r="N20">
-        <v>0.6153040465673207</v>
+        <v>1.371061705746971</v>
       </c>
       <c r="O20">
-        <v>0.9368035606389213</v>
+        <v>1.958267031293602</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.199472235605043</v>
+        <v>0.3850672350651223</v>
       </c>
       <c r="C21">
-        <v>0.1225481816666445</v>
+        <v>0.06580831299217493</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7418823640913246</v>
+        <v>0.6182850129802659</v>
       </c>
       <c r="F21">
-        <v>1.906656569886323</v>
+        <v>2.124422156117774</v>
       </c>
       <c r="G21">
-        <v>0.2566958447518601</v>
+        <v>0.4194758433366559</v>
       </c>
       <c r="H21">
-        <v>0.2212147720709652</v>
+        <v>0.5786566064100711</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0227404632705408</v>
+        <v>0.03966933995387656</v>
       </c>
       <c r="K21">
-        <v>1.169934083883078</v>
+        <v>0.3603800878364041</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.026517995829842</v>
+        <v>0.5064388933068997</v>
       </c>
       <c r="N21">
-        <v>0.5799777532081052</v>
+        <v>1.355687563944276</v>
       </c>
       <c r="O21">
-        <v>0.9573862137947771</v>
+        <v>1.94550181707497</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.287259824604547</v>
+        <v>0.4115614411131219</v>
       </c>
       <c r="C22">
-        <v>0.1283865568290281</v>
+        <v>0.06771657750996951</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7922968334762857</v>
+        <v>0.6289870212859938</v>
       </c>
       <c r="F22">
-        <v>2.017211973075177</v>
+        <v>2.142149781293114</v>
       </c>
       <c r="G22">
-        <v>0.2644960150058893</v>
+        <v>0.4185544484137793</v>
       </c>
       <c r="H22">
-        <v>0.2208626294418323</v>
+        <v>0.5759841021945178</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0226881309616207</v>
+        <v>0.03962452171001551</v>
       </c>
       <c r="K22">
-        <v>1.252894541768711</v>
+        <v>0.3860356454392502</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.103090258768319</v>
+        <v>0.5264204171781302</v>
       </c>
       <c r="N22">
-        <v>0.5578782223295242</v>
+        <v>1.346045327876475</v>
       </c>
       <c r="O22">
-        <v>0.9734198356287607</v>
+        <v>1.938102363753416</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.24037937932377</v>
+        <v>0.3974236256450752</v>
       </c>
       <c r="C23">
-        <v>0.1252694828237964</v>
+        <v>0.06669870581696102</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7653036830997735</v>
+        <v>0.6232535761511855</v>
       </c>
       <c r="F23">
-        <v>1.957903350143184</v>
+        <v>2.132600426181057</v>
       </c>
       <c r="G23">
-        <v>0.2602581816892808</v>
+        <v>0.4190235572862022</v>
       </c>
       <c r="H23">
-        <v>0.2210083297089511</v>
+        <v>0.5773918975106582</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02271508788259169</v>
+        <v>0.03964793165214431</v>
       </c>
       <c r="K23">
-        <v>1.208599273145978</v>
+        <v>0.3723490541737817</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.062151924525075</v>
+        <v>0.5157437510867666</v>
       </c>
       <c r="N23">
-        <v>0.5695801727436951</v>
+        <v>1.351154449962266</v>
       </c>
       <c r="O23">
-        <v>0.9646160438110343</v>
+        <v>1.941965250759665</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.063356946549106</v>
+        <v>0.3438238398256317</v>
       </c>
       <c r="C24">
-        <v>0.1134839552466786</v>
+        <v>0.06283065143638566</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6648678704894877</v>
+        <v>0.6020136868605164</v>
       </c>
       <c r="F24">
-        <v>1.739657510001976</v>
+        <v>2.098362862148406</v>
       </c>
       <c r="G24">
-        <v>0.2457916017170092</v>
+        <v>0.4212975953811195</v>
       </c>
       <c r="H24">
-        <v>0.2224630215141872</v>
+        <v>0.5831318182382432</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02283838786329717</v>
+        <v>0.03974783238659896</v>
       </c>
       <c r="K24">
-        <v>1.041180147573357</v>
+        <v>0.3203785096814613</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9085581163718572</v>
+        <v>0.4755760840530314</v>
       </c>
       <c r="N24">
-        <v>0.6158975626510426</v>
+        <v>1.37131983574438</v>
       </c>
       <c r="O24">
-        <v>0.9365085305818184</v>
+        <v>1.958491592548</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8732187815434429</v>
+        <v>0.2859090082249338</v>
       </c>
       <c r="C25">
-        <v>0.1007985388054138</v>
+        <v>0.05863218047436192</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5598126052028789</v>
+        <v>0.58012012743648</v>
       </c>
       <c r="F25">
-        <v>1.516162266078126</v>
+        <v>2.065556531768394</v>
       </c>
       <c r="G25">
-        <v>0.233217114445857</v>
+        <v>0.4248106067133151</v>
       </c>
       <c r="H25">
-        <v>0.2258085632068898</v>
+        <v>0.5901960938229251</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02301553322467953</v>
+        <v>0.03987977120494435</v>
       </c>
       <c r="K25">
-        <v>0.8610409036465683</v>
+        <v>0.2640499746988212</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.745445993593755</v>
+        <v>0.4328323565412759</v>
       </c>
       <c r="N25">
-        <v>0.669856141829289</v>
+        <v>1.39481287650435</v>
       </c>
       <c r="O25">
-        <v>0.9163067438588541</v>
+        <v>1.98036567762685</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_232/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_232/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2431903771268651</v>
+        <v>0.7335873230410641</v>
       </c>
       <c r="C2">
-        <v>0.05551934676972081</v>
+        <v>0.09146581398732678</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5648735511074534</v>
+        <v>0.4847547744663032</v>
       </c>
       <c r="F2">
-        <v>2.044944038988177</v>
+        <v>1.360246747239884</v>
       </c>
       <c r="G2">
-        <v>0.4283065998189315</v>
+        <v>0.2262339835948097</v>
       </c>
       <c r="H2">
-        <v>0.5961500072058001</v>
+        <v>0.2296583197212527</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03999789559807532</v>
+        <v>0.02318285149672761</v>
       </c>
       <c r="K2">
-        <v>0.2223516965622281</v>
+        <v>0.728502977129537</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4018644365232333</v>
+        <v>0.6270274266687466</v>
       </c>
       <c r="N2">
-        <v>1.413611318524705</v>
+        <v>0.7127798818557807</v>
       </c>
       <c r="O2">
-        <v>1.999951363741616</v>
+        <v>0.9091356038509701</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2141971996420864</v>
+        <v>0.6390369893164234</v>
       </c>
       <c r="C3">
-        <v>0.05339687447753505</v>
+        <v>0.08513864135836968</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5550854854953968</v>
+        <v>0.4350787953096997</v>
       </c>
       <c r="F3">
-        <v>2.033183166965259</v>
+        <v>1.259239109010721</v>
       </c>
       <c r="G3">
-        <v>0.4312419932998282</v>
+        <v>0.2227681339232319</v>
       </c>
       <c r="H3">
-        <v>0.6006553913787229</v>
+        <v>0.233066947789105</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04009112975882978</v>
+        <v>0.02331874404537437</v>
       </c>
       <c r="K3">
-        <v>0.1939576610440668</v>
+        <v>0.6386116653349632</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3811933185100642</v>
+        <v>0.5475841024418813</v>
       </c>
       <c r="N3">
-        <v>1.427288730535384</v>
+        <v>0.7437491769653981</v>
       </c>
       <c r="O3">
-        <v>2.015394959385588</v>
+        <v>0.9086202891170387</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1963765498992132</v>
+        <v>0.5809771225214604</v>
       </c>
       <c r="C4">
-        <v>0.05208753242827413</v>
+        <v>0.08125059632941856</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5493443845042734</v>
+        <v>0.4050925125017599</v>
       </c>
       <c r="F4">
-        <v>2.027051235759373</v>
+        <v>1.199293190403097</v>
       </c>
       <c r="G4">
-        <v>0.4333232307011912</v>
+        <v>0.2212176073562659</v>
       </c>
       <c r="H4">
-        <v>0.6036540412581672</v>
+        <v>0.2355340607975478</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04015490912184116</v>
+        <v>0.0234131193355136</v>
       </c>
       <c r="K4">
-        <v>0.1764592190571506</v>
+        <v>0.5833453080359305</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3686580187189108</v>
+        <v>0.4991331746721386</v>
       </c>
       <c r="N4">
-        <v>1.436149594181771</v>
+        <v>0.7636562145382761</v>
       </c>
       <c r="O4">
-        <v>2.025947734165626</v>
+        <v>0.9103042464653299</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1891102528108206</v>
+        <v>0.557310007999348</v>
       </c>
       <c r="C5">
-        <v>0.05155246469899311</v>
+        <v>0.07966515190540235</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5470725275157164</v>
+        <v>0.3929923611358248</v>
       </c>
       <c r="F5">
-        <v>2.024826485584526</v>
+        <v>1.175354924817299</v>
       </c>
       <c r="G5">
-        <v>0.4342414385632907</v>
+        <v>0.2207242993771672</v>
       </c>
       <c r="H5">
-        <v>0.6049344814160662</v>
+        <v>0.2366306600568961</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04018254748266159</v>
+        <v>0.02345430505619639</v>
       </c>
       <c r="K5">
-        <v>0.169312717384912</v>
+        <v>0.5608005267131091</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3635894776062401</v>
+        <v>0.4794616459130694</v>
       </c>
       <c r="N5">
-        <v>1.439876902238666</v>
+        <v>0.7719876349383785</v>
       </c>
       <c r="O5">
-        <v>2.030517221244651</v>
+        <v>0.9114733102707646</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1879034476085053</v>
+        <v>0.5533794993604886</v>
       </c>
       <c r="C6">
-        <v>0.05146352775679475</v>
+        <v>0.07940182077328473</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5466993783667249</v>
+        <v>0.390990075610091</v>
       </c>
       <c r="F6">
-        <v>2.024473624618977</v>
+        <v>1.171408718426548</v>
       </c>
       <c r="G6">
-        <v>0.4343981380734334</v>
+        <v>0.2206505639047833</v>
       </c>
       <c r="H6">
-        <v>0.6051506300807148</v>
+        <v>0.2368181782325678</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04018723647642375</v>
+        <v>0.02346130795636636</v>
       </c>
       <c r="K6">
-        <v>0.1681251084514486</v>
+        <v>0.5570554356424253</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3627502551963104</v>
+        <v>0.4761993139387926</v>
       </c>
       <c r="N6">
-        <v>1.440502852452287</v>
+        <v>0.77338415167414</v>
       </c>
       <c r="O6">
-        <v>2.031292236815375</v>
+        <v>0.9116960214372227</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1962785706105024</v>
+        <v>0.5806579763735726</v>
       </c>
       <c r="C7">
-        <v>0.0520803223342341</v>
+        <v>0.08122921897160751</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5493134712554379</v>
+        <v>0.4049288545966405</v>
       </c>
       <c r="F7">
-        <v>2.027020122137841</v>
+        <v>1.198968405891023</v>
       </c>
       <c r="G7">
-        <v>0.4333353302530583</v>
+        <v>0.2212104020859087</v>
       </c>
       <c r="H7">
-        <v>0.6036710729349295</v>
+        <v>0.2355484842227185</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04015527518395778</v>
+        <v>0.02341366376893461</v>
       </c>
       <c r="K7">
-        <v>0.1763629019932154</v>
+        <v>0.5830413619393795</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3685895015396099</v>
+        <v>0.498867596057238</v>
       </c>
       <c r="N7">
-        <v>1.436199390470186</v>
+        <v>0.7637676942635956</v>
       </c>
       <c r="O7">
-        <v>2.026008270107781</v>
+        <v>0.9103180838905729</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.233197688394057</v>
+        <v>0.7009838805052766</v>
       </c>
       <c r="C8">
-        <v>0.05478881664731716</v>
+        <v>0.08928469951017348</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5614428862328893</v>
+        <v>0.4675134249960706</v>
       </c>
       <c r="F8">
-        <v>2.04066288886726</v>
+        <v>1.32496977998683</v>
       </c>
       <c r="G8">
-        <v>0.4292608125124531</v>
+        <v>0.2249149839497733</v>
       </c>
       <c r="H8">
-        <v>0.5976552719521777</v>
+        <v>0.2307541855594053</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04002868971353912</v>
+        <v>0.02322742321963922</v>
       </c>
       <c r="K8">
-        <v>0.2125750567061004</v>
+        <v>0.6975204177943937</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3947046262561997</v>
+        <v>0.5995613201848684</v>
       </c>
       <c r="N8">
-        <v>1.418231244861438</v>
+        <v>0.7232698748551734</v>
       </c>
       <c r="O8">
-        <v>2.005054163807046</v>
+        <v>0.9085303326003356</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.305430200716188</v>
+        <v>0.9371892715501247</v>
       </c>
       <c r="C9">
-        <v>0.06004985468139523</v>
+        <v>0.1050694847856306</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5873592613884284</v>
+        <v>0.5948107243205101</v>
       </c>
       <c r="F9">
-        <v>2.076056842888121</v>
+        <v>1.59000181800846</v>
       </c>
       <c r="G9">
-        <v>0.4234858263913566</v>
+        <v>0.237078161555921</v>
       </c>
       <c r="H9">
-        <v>0.5876997083025941</v>
+        <v>0.2244571658596328</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03983208096659752</v>
+        <v>0.0229500613771485</v>
       </c>
       <c r="K9">
-        <v>0.283059719070053</v>
+        <v>0.9216876147424671</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4471525396398803</v>
+        <v>0.8000962107388006</v>
       </c>
       <c r="N9">
-        <v>1.386666291691107</v>
+        <v>0.6511681947953925</v>
       </c>
       <c r="O9">
-        <v>1.972456707558763</v>
+        <v>0.921851062419762</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3583802879072095</v>
+        <v>1.111325045065342</v>
       </c>
       <c r="C10">
-        <v>0.06388263683051321</v>
+        <v>0.116679890075261</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6076986032895775</v>
+        <v>0.691843986624562</v>
       </c>
       <c r="F10">
-        <v>2.107330967253333</v>
+        <v>1.797876720835148</v>
       </c>
       <c r="G10">
-        <v>0.4205968319777895</v>
+        <v>0.24946336151487</v>
       </c>
       <c r="H10">
-        <v>0.5815052614804799</v>
+        <v>0.2219213824154593</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03971882258638004</v>
+        <v>0.02280139434786754</v>
       </c>
       <c r="K10">
-        <v>0.3345061854599862</v>
+        <v>1.086571980814227</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4864327252334775</v>
+        <v>0.9500192497028976</v>
       </c>
       <c r="N10">
-        <v>1.365709556347337</v>
+        <v>0.6029992218497142</v>
       </c>
       <c r="O10">
-        <v>1.953687339506587</v>
+        <v>0.9432920507852032</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.382439243199542</v>
+        <v>1.190779790707637</v>
       </c>
       <c r="C11">
-        <v>0.06561884507701166</v>
+        <v>0.121969759739045</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6172335779191513</v>
+        <v>0.736921631304611</v>
       </c>
       <c r="F11">
-        <v>2.122703716554952</v>
+        <v>1.895828606613918</v>
       </c>
       <c r="G11">
-        <v>0.4195773131610423</v>
+        <v>0.2559554332699747</v>
       </c>
       <c r="H11">
-        <v>0.5789298730355412</v>
+        <v>0.2212683706242515</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03967401170004869</v>
+        <v>0.02274608543473455</v>
       </c>
       <c r="K11">
-        <v>0.3578336274262028</v>
+        <v>1.161716334346551</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5044632134837315</v>
+        <v>1.018956781240021</v>
       </c>
       <c r="N11">
-        <v>1.35666014457184</v>
+        <v>0.5822100704717244</v>
       </c>
       <c r="O11">
-        <v>1.946274009960604</v>
+        <v>0.9559052638546603</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3915452584293746</v>
+        <v>1.22091082749111</v>
       </c>
       <c r="C12">
-        <v>0.06627520729463754</v>
+        <v>0.1239745212179884</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6208847970912643</v>
+        <v>0.754141462280117</v>
       </c>
       <c r="F12">
-        <v>2.12868972423928</v>
+        <v>1.933454641547257</v>
       </c>
       <c r="G12">
-        <v>0.4192336825448848</v>
+        <v>0.2585468531652495</v>
       </c>
       <c r="H12">
-        <v>0.5779894699062709</v>
+        <v>0.2210972249921923</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03965800308625944</v>
+        <v>0.02272694417845145</v>
       </c>
       <c r="K12">
-        <v>0.3666558267202333</v>
+        <v>1.190199348468326</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5113139463295369</v>
+        <v>1.045182671029302</v>
       </c>
       <c r="N12">
-        <v>1.35330292302017</v>
+        <v>0.5745065714722628</v>
       </c>
       <c r="O12">
-        <v>1.943628581507198</v>
+        <v>0.9611219786536651</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3895843274798949</v>
+        <v>1.214419499151035</v>
       </c>
       <c r="C13">
-        <v>0.06613389769985645</v>
+        <v>0.1235426816182752</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.620096640558657</v>
+        <v>0.750425942110823</v>
       </c>
       <c r="F13">
-        <v>2.127393207926616</v>
+        <v>1.925326685564144</v>
       </c>
       <c r="G13">
-        <v>0.4193058010828139</v>
+        <v>0.2579826687450648</v>
       </c>
       <c r="H13">
-        <v>0.5781904534783493</v>
+        <v>0.2211306290197044</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.039661408193016</v>
+        <v>0.02273098588456612</v>
       </c>
       <c r="K13">
-        <v>0.3647563230002788</v>
+        <v>1.184063671099381</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5098375009229059</v>
+        <v>1.039528839027845</v>
       </c>
       <c r="N13">
-        <v>1.354022865366939</v>
+        <v>0.5761580233715513</v>
       </c>
       <c r="O13">
-        <v>1.944191122901032</v>
+        <v>0.9599783963355719</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3831884954948919</v>
+        <v>1.19325776978738</v>
       </c>
       <c r="C14">
-        <v>0.0656728667459987</v>
+        <v>0.1221346580221763</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6175331541448372</v>
+        <v>0.7383352216651105</v>
       </c>
       <c r="F14">
-        <v>2.123192889195806</v>
+        <v>1.898913147176046</v>
       </c>
       <c r="G14">
-        <v>0.4195481915708612</v>
+        <v>0.2561659077905958</v>
       </c>
       <c r="H14">
-        <v>0.5788518074180757</v>
+        <v>0.2212527397206543</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03967267544297925</v>
+        <v>0.02274447435152638</v>
       </c>
       <c r="K14">
-        <v>0.3585596663120327</v>
+        <v>1.164059052281459</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5050263684806069</v>
+        <v>1.02111189246591</v>
       </c>
       <c r="N14">
-        <v>1.356382549104822</v>
+        <v>0.5815728699963039</v>
       </c>
       <c r="O14">
-        <v>1.946053125072396</v>
+        <v>0.9563254469498759</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3792702507084584</v>
+        <v>1.180301503856043</v>
       </c>
       <c r="C15">
-        <v>0.06539032707128456</v>
+        <v>0.1212724246824735</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6159682202974466</v>
+        <v>0.7309492991120123</v>
       </c>
       <c r="F15">
-        <v>2.120641515716173</v>
+        <v>1.882805043044414</v>
       </c>
       <c r="G15">
-        <v>0.419702191379379</v>
+        <v>0.2550707078809964</v>
       </c>
       <c r="H15">
-        <v>0.5792614421866915</v>
+        <v>0.2213375791669847</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.039679701877537</v>
+        <v>0.02275297219158112</v>
       </c>
       <c r="K15">
-        <v>0.3547625362969029</v>
+        <v>1.151809462019088</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.502082395093808</v>
+        <v>1.009847162910255</v>
       </c>
       <c r="N15">
-        <v>1.357836987047595</v>
+        <v>0.5849118428962825</v>
       </c>
       <c r="O15">
-        <v>1.947214733456605</v>
+        <v>0.9541461553317134</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3568073646844141</v>
+        <v>1.106138048994779</v>
       </c>
       <c r="C16">
-        <v>0.06376901981606409</v>
+        <v>0.1163343852960139</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6070811470916766</v>
+        <v>0.6889181800044781</v>
       </c>
       <c r="F16">
-        <v>2.106349372761727</v>
+        <v>1.791547422954395</v>
       </c>
       <c r="G16">
-        <v>0.4206693953126788</v>
+        <v>0.2490571642156212</v>
       </c>
       <c r="H16">
-        <v>0.581678446239593</v>
+        <v>0.2219744798764509</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03972188572016222</v>
+        <v>0.02280525948102508</v>
       </c>
       <c r="K16">
-        <v>0.3329801144002147</v>
+        <v>1.081664534302178</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4852576211085591</v>
+        <v>0.9455300859473041</v>
       </c>
       <c r="N16">
-        <v>1.366310694893798</v>
+        <v>0.6043810644794299</v>
       </c>
       <c r="O16">
-        <v>1.954194461071893</v>
+        <v>0.9425277411018982</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3430194930081996</v>
+        <v>1.060708589589098</v>
       </c>
       <c r="C17">
-        <v>0.06277248657086432</v>
+        <v>0.1133074536554943</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6017015061817546</v>
+        <v>0.663383835151734</v>
       </c>
       <c r="F17">
-        <v>2.097875043548868</v>
+        <v>1.736463795983411</v>
       </c>
       <c r="G17">
-        <v>0.4213382671530823</v>
+        <v>0.2455944683750104</v>
       </c>
       <c r="H17">
-        <v>0.5832232875799619</v>
+        <v>0.2224962737114993</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0397494796037936</v>
+        <v>0.02284051344889448</v>
       </c>
       <c r="K17">
-        <v>0.3195975342827353</v>
+        <v>1.038673436006718</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4749773931279222</v>
+        <v>0.9062725400479152</v>
       </c>
       <c r="N17">
-        <v>1.371632986856383</v>
+        <v>0.6166175906367961</v>
       </c>
       <c r="O17">
-        <v>1.958764476034446</v>
+        <v>0.9361528090299203</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.335086440712189</v>
+        <v>1.034600746518464</v>
       </c>
       <c r="C18">
-        <v>0.0621986185456791</v>
+        <v>0.1115671908095806</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5986338753872644</v>
+        <v>0.6487843493726899</v>
       </c>
       <c r="F18">
-        <v>2.09310870655392</v>
+        <v>1.705097124856081</v>
       </c>
       <c r="G18">
-        <v>0.421750719375396</v>
+        <v>0.2436829630353756</v>
       </c>
       <c r="H18">
-        <v>0.5841346661556699</v>
+        <v>0.2228432437032737</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03976598282094557</v>
+        <v>0.02286194829603616</v>
       </c>
       <c r="K18">
-        <v>0.3118931217790077</v>
+        <v>1.013958554348477</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4690797178718213</v>
+        <v>0.8837610400000884</v>
       </c>
       <c r="N18">
-        <v>1.37473977587868</v>
+        <v>0.6237609653811518</v>
       </c>
       <c r="O18">
-        <v>1.961498909108201</v>
+        <v>0.9327534249461849</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3324000090688344</v>
+        <v>1.025764596229237</v>
       </c>
       <c r="C19">
-        <v>0.06200419985756866</v>
+        <v>0.1109780840870798</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5975997990841648</v>
+        <v>0.6438557449300504</v>
       </c>
       <c r="F19">
-        <v>2.091513437416424</v>
+        <v>1.694529813284234</v>
       </c>
       <c r="G19">
-        <v>0.4218951302095562</v>
+        <v>0.2430492413912049</v>
       </c>
       <c r="H19">
-        <v>0.584447164712607</v>
+        <v>0.2229686454346691</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03977167920804803</v>
+        <v>0.02286940367134171</v>
       </c>
       <c r="K19">
-        <v>0.3092833346388204</v>
+        <v>1.00559243519757</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4670854923351797</v>
+        <v>0.8761503477442432</v>
       </c>
       <c r="N19">
-        <v>1.375799503867892</v>
+        <v>0.6261974477555512</v>
       </c>
       <c r="O19">
-        <v>1.962442924184515</v>
+        <v>0.9316475034340783</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.34448751176771</v>
+        <v>1.065542296365464</v>
       </c>
       <c r="C20">
-        <v>0.06287864082479189</v>
+        <v>0.113629595355107</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6022714261866469</v>
+        <v>0.6660928789454204</v>
       </c>
       <c r="F20">
-        <v>2.098765986707221</v>
+        <v>1.742294513415914</v>
       </c>
       <c r="G20">
-        <v>0.4212641937047863</v>
+        <v>0.2459547155911892</v>
       </c>
       <c r="H20">
-        <v>0.5830564743233921</v>
+        <v>0.2224358499756676</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03974647681774712</v>
+        <v>0.02283664056423973</v>
       </c>
       <c r="K20">
-        <v>0.3210228718496069</v>
+        <v>1.04324856825508</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4760701656844333</v>
+        <v>0.910444389756158</v>
       </c>
       <c r="N20">
-        <v>1.371061705746971</v>
+        <v>0.6153040465672639</v>
       </c>
       <c r="O20">
-        <v>1.958267031293602</v>
+        <v>0.9368035606389356</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3850672350651223</v>
+        <v>1.199472235604929</v>
       </c>
       <c r="C21">
-        <v>0.06580831299217493</v>
+        <v>0.1225481816664171</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6182850129802659</v>
+        <v>0.7418823640913246</v>
       </c>
       <c r="F21">
-        <v>2.124422156117774</v>
+        <v>1.906656569886351</v>
       </c>
       <c r="G21">
-        <v>0.4194758433366559</v>
+        <v>0.2566958447518601</v>
       </c>
       <c r="H21">
-        <v>0.5786566064100711</v>
+        <v>0.2212147720709652</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03966933995387656</v>
+        <v>0.02274046327049284</v>
       </c>
       <c r="K21">
-        <v>0.3603800878364041</v>
+        <v>1.169934083882964</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5064388933068997</v>
+        <v>1.026517995829849</v>
       </c>
       <c r="N21">
-        <v>1.355687563944276</v>
+        <v>0.5799777532081087</v>
       </c>
       <c r="O21">
-        <v>1.94550181707497</v>
+        <v>0.9573862137947771</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4115614411131219</v>
+        <v>1.287259824604604</v>
       </c>
       <c r="C22">
-        <v>0.06771657750996951</v>
+        <v>0.1283865568292129</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6289870212859938</v>
+        <v>0.7922968334762714</v>
       </c>
       <c r="F22">
-        <v>2.142149781293114</v>
+        <v>2.017211973075163</v>
       </c>
       <c r="G22">
-        <v>0.4185544484137793</v>
+        <v>0.2644960150058822</v>
       </c>
       <c r="H22">
-        <v>0.5759841021945178</v>
+        <v>0.2208626294417257</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03962452171001551</v>
+        <v>0.0226881309616207</v>
       </c>
       <c r="K22">
-        <v>0.3860356454392502</v>
+        <v>1.252894541768768</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5264204171781302</v>
+        <v>1.103090258768326</v>
       </c>
       <c r="N22">
-        <v>1.346045327876475</v>
+        <v>0.5578782223295029</v>
       </c>
       <c r="O22">
-        <v>1.938102363753416</v>
+        <v>0.9734198356287607</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3974236256450752</v>
+        <v>1.24037937932377</v>
       </c>
       <c r="C23">
-        <v>0.06669870581696102</v>
+        <v>0.1252694828243364</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6232535761511855</v>
+        <v>0.7653036830997877</v>
       </c>
       <c r="F23">
-        <v>2.132600426181057</v>
+        <v>1.957903350143198</v>
       </c>
       <c r="G23">
-        <v>0.4190235572862022</v>
+        <v>0.2602581816892879</v>
       </c>
       <c r="H23">
-        <v>0.5773918975106582</v>
+        <v>0.2210083297089369</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03964793165214431</v>
+        <v>0.02271508788259347</v>
       </c>
       <c r="K23">
-        <v>0.3723490541737817</v>
+        <v>1.208599273146007</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5157437510867666</v>
+        <v>1.062151924525061</v>
       </c>
       <c r="N23">
-        <v>1.351154449962266</v>
+        <v>0.5695801727436383</v>
       </c>
       <c r="O23">
-        <v>1.941965250759665</v>
+        <v>0.9646160438110343</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3438238398256317</v>
+        <v>1.063356946549135</v>
       </c>
       <c r="C24">
-        <v>0.06283065143638566</v>
+        <v>0.1134839552469202</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6020136868605164</v>
+        <v>0.6648678704894735</v>
       </c>
       <c r="F24">
-        <v>2.098362862148406</v>
+        <v>1.73965751000199</v>
       </c>
       <c r="G24">
-        <v>0.4212975953811195</v>
+        <v>0.2457916017170021</v>
       </c>
       <c r="H24">
-        <v>0.5831318182382432</v>
+        <v>0.2224630215142014</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03974783238659896</v>
+        <v>0.02283838786335046</v>
       </c>
       <c r="K24">
-        <v>0.3203785096814613</v>
+        <v>1.041180147573385</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4755760840530314</v>
+        <v>0.9085581163718714</v>
       </c>
       <c r="N24">
-        <v>1.37131983574438</v>
+        <v>0.6158975626510532</v>
       </c>
       <c r="O24">
-        <v>1.958491592548</v>
+        <v>0.9365085305818184</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2859090082249338</v>
+        <v>0.8732187815434145</v>
       </c>
       <c r="C25">
-        <v>0.05863218047436192</v>
+        <v>0.1007985388052433</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.58012012743648</v>
+        <v>0.5598126052028789</v>
       </c>
       <c r="F25">
-        <v>2.065556531768394</v>
+        <v>1.516162266078126</v>
       </c>
       <c r="G25">
-        <v>0.4248106067133151</v>
+        <v>0.233217114445921</v>
       </c>
       <c r="H25">
-        <v>0.5901960938229251</v>
+        <v>0.2258085632068898</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03987977120494435</v>
+        <v>0.02301553322472749</v>
       </c>
       <c r="K25">
-        <v>0.2640499746988212</v>
+        <v>0.8610409036465683</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4328323565412759</v>
+        <v>0.7454459935937479</v>
       </c>
       <c r="N25">
-        <v>1.39481287650435</v>
+        <v>0.6698561418292179</v>
       </c>
       <c r="O25">
-        <v>1.98036567762685</v>
+        <v>0.9163067438588541</v>
       </c>
     </row>
   </sheetData>
